--- a/ExcelReportGenerator.WebApp/wwwroot/weekly/demo1.xlsx
+++ b/ExcelReportGenerator.WebApp/wwwroot/weekly/demo1.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Mazen Salah - Task Report (06-07-2024 to 10-07-2024)</t>
+    <t>Mazen Salah - Task Report (01-07-2024 to 01-07-2024)</t>
   </si>
   <si>
     <t xml:space="preserve"> #</t>

--- a/ExcelReportGenerator.WebApp/wwwroot/weekly/demo1.xlsx
+++ b/ExcelReportGenerator.WebApp/wwwroot/weekly/demo1.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,41 +28,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Mazen Salah - Task Report (01-07-2024 to 01-07-2024)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Tasks Details</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Complete Date</t>
+  </si>
+  <si>
+    <t>System /Module</t>
   </si>
   <si>
     <t xml:space="preserve"> #</t>
-  </si>
-  <si>
-    <t>Tasks Details</t>
-  </si>
-  <si>
-    <t>System /Module</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Complete Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -108,7 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.049989318521683403"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,65 +147,65 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A0801955-1FF8-47AD-AD4D-6E12016A339E}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{915CDBB6-76FF-45C4-96BE-55289BC95FA9}"/>
-    <cellStyle name="Style 1" xfId="3" xr:uid="{82D921B7-1C3A-461A-8ADD-05414A90D7A5}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{915CDBB6-76FF-45C4-96BE-55289BC95FA9}"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{82D921B7-1C3A-461A-8ADD-05414A90D7A5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,20 +526,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" style="5"/>
-    <col min="3" max="3" width="27" customWidth="1" style="11"/>
+    <col min="2" max="2" width="36.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27" style="11" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" style="10"/>
-    <col min="6" max="6" width="21.21875" customWidth="1" style="10"/>
+    <col min="5" max="5" width="18.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="10" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
     <col min="9" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.6" customHeight="1" s="8" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -552,33 +546,33 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7"/>
       <c r="E3" s="9"/>
@@ -586,7 +580,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12"/>
@@ -595,51 +589,50 @@
       <c r="G4" s="6"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>